--- a/data/trans_dic/P25A$medico-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,28</t>
+          <t>0,0; 34,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,15</t>
+          <t>0,0; 31,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 46,77</t>
+          <t>6,02; 51,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,64</t>
+          <t>0,0; 20,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,24</t>
+          <t>0,0; 16,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 30,74</t>
+          <t>3,85; 33,68</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 24,96</t>
+          <t>2,7; 25,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 13,3</t>
+          <t>1,33; 13,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 18,12</t>
+          <t>2,1; 16,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 17,27</t>
+          <t>3,0; 17,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 14,74</t>
+          <t>3,25; 13,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,51</t>
+          <t>0,0; 11,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 17,25</t>
+          <t>4,63; 16,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 11,53</t>
+          <t>3,2; 11,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 10,92</t>
+          <t>1,81; 10,5</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 16,36</t>
+          <t>2,55; 15,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 12,21</t>
+          <t>2,82; 11,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 10,98</t>
+          <t>1,19; 10,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,6</t>
+          <t>0,0; 12,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,91</t>
+          <t>0,77; 6,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,56</t>
+          <t>1,03; 8,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 10,63</t>
+          <t>2,41; 10,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,51</t>
+          <t>2,41; 7,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,85</t>
+          <t>1,28; 7,67</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 24,71</t>
+          <t>10,69; 24,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 14,28</t>
+          <t>5,51; 14,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 30,0</t>
+          <t>13,15; 28,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,66</t>
+          <t>0,0; 10,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 17,06</t>
+          <t>4,58; 17,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 16,71</t>
+          <t>4,6; 17,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 17,9</t>
+          <t>8,1; 18,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,72</t>
+          <t>6,08; 13,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 20,72</t>
+          <t>10,11; 20,75</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,49; 42,33</t>
+          <t>26,13; 41,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,04; 27,84</t>
+          <t>13,87; 28,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,66; 29,41</t>
+          <t>14,74; 29,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,15</t>
+          <t>0,0; 23,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 31,55</t>
+          <t>9,04; 30,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 26,71</t>
+          <t>6,0; 26,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,03; 38,64</t>
+          <t>22,87; 37,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 25,62</t>
+          <t>13,77; 25,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,51; 24,83</t>
+          <t>14,05; 26,45</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 47,55</t>
+          <t>30,88; 47,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,37; 39,63</t>
+          <t>24,66; 39,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,95; 32,32</t>
+          <t>17,39; 33,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,14; 57,52</t>
+          <t>8,25; 58,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,48; 75,49</t>
+          <t>10,66; 76,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,67; 37,43</t>
+          <t>7,87; 41,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,54; 46,02</t>
+          <t>30,44; 46,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,47; 40,39</t>
+          <t>25,88; 40,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,15; 31,4</t>
+          <t>17,3; 31,18</t>
         </is>
       </c>
     </row>
@@ -1345,27 +1346,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,45; 52,52</t>
+          <t>33,52; 52,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,68; 47,7</t>
+          <t>29,98; 46,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,7; 36,6</t>
+          <t>20,49; 35,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,46; 76,17</t>
+          <t>11,33; 83,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,26</t>
+          <t>0,0; 66,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,17 +1376,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,32; 51,49</t>
+          <t>33,8; 52,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,7; 46,41</t>
+          <t>29,46; 46,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,7; 36,11</t>
+          <t>19,54; 35,2</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,81; 30,56</t>
+          <t>23,46; 30,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,94; 22,68</t>
+          <t>16,9; 22,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,32; 22,57</t>
+          <t>16,13; 22,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,57</t>
+          <t>5,34; 13,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,12</t>
+          <t>6,3; 12,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,43</t>
+          <t>6,33; 12,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,03; 24,55</t>
+          <t>18,99; 24,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,09; 18,41</t>
+          <t>13,96; 18,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,34; 18,32</t>
+          <t>13,39; 18,38</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1771</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1871</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5347</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5987</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>994; 8434</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5486</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5910</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1000; 8739</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6078</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5970</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10437</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10039</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5077</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1064; 10188</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>964; 9641</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1018; 8161</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2103; 12153</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2693; 11462</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6841</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5071; 18258</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4973; 17652</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1929; 11191</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5796</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7166</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2540</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2954</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3009</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8336</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10120</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6029</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2168; 13173</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3172; 13450</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>887; 8098</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8299</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>956; 7975</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>903; 7753</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3641; 16038</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5695; 18725</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2084; 12452</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20572</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15683</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21919</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8623</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8237</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22628</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24306</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30155</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13415; 30425</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9366; 25085</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14222; 30898</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6210</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4198; 16034</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4063; 15191</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14928; 33991</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15904; 34904</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19854; 40761</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>43175</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>28176</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28448</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9201</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7956</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>44144</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37377</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>36404</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>33475; 53725</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19454; 40197</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19607; 39159</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4071</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4677; 15875</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3412; 15282</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>33295; 54970</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>26436; 49448</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>26674; 50234</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>47067</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>51381</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>29837</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3901</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4761</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>50967</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>56142</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>34998</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>37643; 58067</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>40082; 64832</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>21434; 41425</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1117; 7872</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1132; 8087</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2027; 10665</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>41227; 63605</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>44812; 70350</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>25778; 46452</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>48529</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>54300</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>30530</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3666</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>52195</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>55287</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>30530</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>37983; 59445</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>42419; 65965</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22278; 38796</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1046; 7726</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4246</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1420</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>41421; 63764</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>43563; 68580</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>21728; 39154</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>169499</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>160776</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>116902</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>21051</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>34474</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>30075</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>190550</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>195250</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>146977</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>146547; 191499</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>137926; 184183</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>97643; 138260</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>13395; 33379</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>24372; 47132</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>21270; 41895</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>166235; 214789</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>167872; 222191</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>125999; 173037</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>